--- a/Code/Results/Cases/Case_9_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.64008419470739</v>
+        <v>13.84479061697009</v>
       </c>
       <c r="C2">
-        <v>6.478517513551246</v>
+        <v>6.51555440041338</v>
       </c>
       <c r="D2">
-        <v>3.648540508567531</v>
+        <v>3.908568596211207</v>
       </c>
       <c r="E2">
-        <v>6.661732550425928</v>
+        <v>6.653698473165297</v>
       </c>
       <c r="F2">
-        <v>30.25172351145621</v>
+        <v>28.60827428603212</v>
       </c>
       <c r="G2">
-        <v>39.40892098682504</v>
+        <v>36.68854099613339</v>
       </c>
       <c r="H2">
-        <v>4.136987741106783</v>
+        <v>3.889439000599274</v>
       </c>
       <c r="I2">
-        <v>4.696245881858053</v>
+        <v>4.380305516404383</v>
       </c>
       <c r="J2">
-        <v>13.20888625262774</v>
+        <v>12.54397626436306</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.875557201593808</v>
+        <v>15.634935654279</v>
       </c>
       <c r="M2">
-        <v>11.12024464567196</v>
+        <v>14.67386923927538</v>
       </c>
       <c r="N2">
-        <v>5.957128406637615</v>
+        <v>5.795737121192405</v>
       </c>
       <c r="O2">
-        <v>10.54716229902571</v>
+        <v>10.95153488818359</v>
       </c>
       <c r="P2">
-        <v>15.50647306824255</v>
+        <v>6.326783809978121</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.37627145734616</v>
+      </c>
+      <c r="R2">
+        <v>14.98776817528768</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.82726927917091</v>
+        <v>13.0752620338225</v>
       </c>
       <c r="C3">
-        <v>6.195337437582197</v>
+        <v>6.136389175935681</v>
       </c>
       <c r="D3">
-        <v>3.525964387808016</v>
+        <v>3.775431433184531</v>
       </c>
       <c r="E3">
-        <v>6.540981190755272</v>
+        <v>6.548310946537454</v>
       </c>
       <c r="F3">
-        <v>29.78739242867828</v>
+        <v>28.25085841661404</v>
       </c>
       <c r="G3">
-        <v>38.68801756876275</v>
+        <v>36.2249470761904</v>
       </c>
       <c r="H3">
-        <v>4.357575882501967</v>
+        <v>4.090795693316893</v>
       </c>
       <c r="I3">
-        <v>4.879891713924565</v>
+        <v>4.540563915523178</v>
       </c>
       <c r="J3">
-        <v>13.14250777724238</v>
+        <v>12.46515170358678</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.825132965744499</v>
+        <v>15.66661119762836</v>
       </c>
       <c r="M3">
-        <v>10.52439046287513</v>
+        <v>14.57349878284872</v>
       </c>
       <c r="N3">
-        <v>5.832787613076242</v>
+        <v>5.751984089571085</v>
       </c>
       <c r="O3">
-        <v>10.20390453736867</v>
+        <v>10.35669041261899</v>
       </c>
       <c r="P3">
-        <v>15.62501396936217</v>
+        <v>6.196360879119065</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.03924935580703</v>
+      </c>
+      <c r="R3">
+        <v>15.11930581461916</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.30297161077741</v>
+        <v>12.57692365894636</v>
       </c>
       <c r="C4">
-        <v>6.016339476319984</v>
+        <v>5.895329873913016</v>
       </c>
       <c r="D4">
-        <v>3.44951557880226</v>
+        <v>3.692600465731054</v>
       </c>
       <c r="E4">
-        <v>6.464776280280991</v>
+        <v>6.481832911261042</v>
       </c>
       <c r="F4">
-        <v>29.50426212398962</v>
+        <v>28.03295802166225</v>
       </c>
       <c r="G4">
-        <v>38.24622658138191</v>
+        <v>35.94542716354571</v>
       </c>
       <c r="H4">
-        <v>4.497983438702987</v>
+        <v>4.219053089852013</v>
       </c>
       <c r="I4">
-        <v>4.997361312244087</v>
+        <v>4.64338317755214</v>
       </c>
       <c r="J4">
-        <v>13.10385637393479</v>
+        <v>12.41658127414318</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.79289712203709</v>
+        <v>15.68294066239277</v>
       </c>
       <c r="M4">
-        <v>10.14294234570039</v>
+        <v>14.52682630163461</v>
       </c>
       <c r="N4">
-        <v>5.755802244534985</v>
+        <v>5.723954445994107</v>
       </c>
       <c r="O4">
-        <v>9.988151765448835</v>
+        <v>9.974822025222183</v>
       </c>
       <c r="P4">
-        <v>15.6986933243337</v>
+        <v>6.115964893799617</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.82705456876506</v>
+      </c>
+      <c r="R4">
+        <v>15.20097987984797</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.07710635469093</v>
+        <v>12.36157304856679</v>
       </c>
       <c r="C5">
-        <v>5.946701777968138</v>
+        <v>5.80076320125985</v>
       </c>
       <c r="D5">
-        <v>3.419547930488784</v>
+        <v>3.660013156840852</v>
       </c>
       <c r="E5">
-        <v>6.432577608698943</v>
+        <v>6.45372309285729</v>
       </c>
       <c r="F5">
-        <v>29.37944817580099</v>
+        <v>27.9350928957753</v>
       </c>
       <c r="G5">
-        <v>38.04913288037382</v>
+        <v>35.81657221444051</v>
       </c>
       <c r="H5">
-        <v>4.556893114376955</v>
+        <v>4.272891794764706</v>
       </c>
       <c r="I5">
-        <v>5.048743776955078</v>
+        <v>4.689070540845733</v>
       </c>
       <c r="J5">
-        <v>13.08538861634313</v>
+        <v>12.39355386078287</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.778945736876743</v>
+        <v>15.68217626367945</v>
       </c>
       <c r="M5">
-        <v>9.98261295507953</v>
+        <v>14.50733232608898</v>
       </c>
       <c r="N5">
-        <v>5.725547087649669</v>
+        <v>5.7118086615616</v>
       </c>
       <c r="O5">
-        <v>9.89809693248173</v>
+        <v>9.814067838164384</v>
       </c>
       <c r="P5">
-        <v>15.72693817118536</v>
+        <v>6.084353207554543</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.738410700435876</v>
+      </c>
+      <c r="R5">
+        <v>15.23282793082487</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.03185453519447</v>
+        <v>12.31822689700368</v>
       </c>
       <c r="C6">
-        <v>5.940678999685584</v>
+        <v>5.791923430241805</v>
       </c>
       <c r="D6">
-        <v>3.41632930382965</v>
+        <v>3.656295327181895</v>
       </c>
       <c r="E6">
-        <v>6.42642808329512</v>
+        <v>6.44832148170736</v>
       </c>
       <c r="F6">
-        <v>29.34650765949687</v>
+        <v>27.90724652297344</v>
       </c>
       <c r="G6">
-        <v>37.99511948161814</v>
+        <v>35.77536853381427</v>
       </c>
       <c r="H6">
-        <v>4.56727194770026</v>
+        <v>4.282385258191058</v>
       </c>
       <c r="I6">
-        <v>5.060286778174752</v>
+        <v>4.700126191711681</v>
       </c>
       <c r="J6">
-        <v>13.07838794642052</v>
+        <v>12.38581849170274</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.776009999932912</v>
+        <v>15.67390943168813</v>
       </c>
       <c r="M6">
-        <v>9.954398868132611</v>
+        <v>14.49909676345149</v>
       </c>
       <c r="N6">
-        <v>5.722052498704199</v>
+        <v>5.709252768952005</v>
       </c>
       <c r="O6">
-        <v>9.881867645308716</v>
+        <v>9.785795927746843</v>
       </c>
       <c r="P6">
-        <v>15.7291864320673</v>
+        <v>6.08057320049461</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.722451276384053</v>
+      </c>
+      <c r="R6">
+        <v>15.23609103566593</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.28018640725332</v>
+        <v>12.54948284312165</v>
       </c>
       <c r="C7">
-        <v>6.030534416484696</v>
+        <v>5.906215384520812</v>
       </c>
       <c r="D7">
-        <v>3.453891962048842</v>
+        <v>3.701615710094599</v>
       </c>
       <c r="E7">
-        <v>6.462257629892799</v>
+        <v>6.480591458490657</v>
       </c>
       <c r="F7">
-        <v>29.46931737269859</v>
+        <v>27.98173217803461</v>
       </c>
       <c r="G7">
-        <v>38.18575187700373</v>
+        <v>35.94935635678817</v>
       </c>
       <c r="H7">
-        <v>4.500171766333086</v>
+        <v>4.221773988455832</v>
       </c>
       <c r="I7">
-        <v>5.005835990872822</v>
+        <v>4.65366240012476</v>
       </c>
       <c r="J7">
-        <v>13.09281455441814</v>
+        <v>12.36353811325527</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.791092451517406</v>
+        <v>15.6515861537088</v>
       </c>
       <c r="M7">
-        <v>10.13711649413099</v>
+        <v>14.50539400063963</v>
       </c>
       <c r="N7">
-        <v>5.759562835969594</v>
+        <v>5.72201504319502</v>
       </c>
       <c r="O7">
-        <v>9.983670254548207</v>
+        <v>9.962831316050151</v>
       </c>
       <c r="P7">
-        <v>15.69241865432912</v>
+        <v>6.119370677611679</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.820873939856483</v>
+      </c>
+      <c r="R7">
+        <v>15.19315256932014</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.34068327121149</v>
+        <v>13.54472735740632</v>
       </c>
       <c r="C8">
-        <v>6.401085736035974</v>
+        <v>6.389388754549535</v>
       </c>
       <c r="D8">
-        <v>3.612599904055227</v>
+        <v>3.88432035162035</v>
       </c>
       <c r="E8">
-        <v>6.617866603560262</v>
+        <v>6.618794441027003</v>
       </c>
       <c r="F8">
-        <v>30.04824991820653</v>
+        <v>28.38441216350245</v>
       </c>
       <c r="G8">
-        <v>39.0856871859707</v>
+        <v>36.6540836069124</v>
       </c>
       <c r="H8">
-        <v>4.213787485057415</v>
+        <v>3.961718494026607</v>
       </c>
       <c r="I8">
-        <v>4.768441125655909</v>
+        <v>4.448105744592169</v>
       </c>
       <c r="J8">
-        <v>13.17147555309789</v>
+        <v>12.36591725952093</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.856376779281426</v>
+        <v>15.58979717450738</v>
       </c>
       <c r="M8">
-        <v>10.91350976808617</v>
+        <v>14.59262868530956</v>
       </c>
       <c r="N8">
-        <v>5.91978872819832</v>
+        <v>5.77797080879468</v>
       </c>
       <c r="O8">
-        <v>10.42572927489037</v>
+        <v>10.72602952801809</v>
       </c>
       <c r="P8">
-        <v>15.53859399331584</v>
+        <v>6.286566303122861</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.25133311366566</v>
+      </c>
+      <c r="R8">
+        <v>15.01729939253975</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.24667115473967</v>
+        <v>15.33810410124067</v>
       </c>
       <c r="C9">
-        <v>7.061191285114303</v>
+        <v>7.263430613949932</v>
       </c>
       <c r="D9">
-        <v>3.904915246786484</v>
+        <v>4.206354113813869</v>
       </c>
       <c r="E9">
-        <v>6.909989520437258</v>
+        <v>6.87497768583132</v>
       </c>
       <c r="F9">
-        <v>31.25314546386709</v>
+        <v>29.30651654292344</v>
       </c>
       <c r="G9">
-        <v>40.95063534697416</v>
+        <v>37.94842875558146</v>
       </c>
       <c r="H9">
-        <v>3.688421499947191</v>
+        <v>3.483039765853205</v>
       </c>
       <c r="I9">
-        <v>4.326891473708856</v>
+        <v>4.062458847415041</v>
       </c>
       <c r="J9">
-        <v>13.36155120699246</v>
+        <v>12.53923398000567</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.977187181851971</v>
+        <v>15.51469252276089</v>
       </c>
       <c r="M9">
-        <v>12.31306447206173</v>
+        <v>14.93255223498211</v>
       </c>
       <c r="N9">
-        <v>6.22071536122707</v>
+        <v>5.882319948815812</v>
       </c>
       <c r="O9">
-        <v>11.25424606234942</v>
+        <v>12.16207128092007</v>
       </c>
       <c r="P9">
-        <v>15.25515501922018</v>
+        <v>6.60433535746048</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.06165428220563</v>
+      </c>
+      <c r="R9">
+        <v>14.69836610046191</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.45883366164783</v>
+        <v>16.45185694632686</v>
       </c>
       <c r="C10">
-        <v>7.544984147312096</v>
+        <v>7.855595198461816</v>
       </c>
       <c r="D10">
-        <v>4.092275568411104</v>
+        <v>4.437144642294119</v>
       </c>
       <c r="E10">
-        <v>7.057563688624178</v>
+        <v>7.006393866506827</v>
       </c>
       <c r="F10">
-        <v>31.96001122031156</v>
+        <v>29.72959427062469</v>
       </c>
       <c r="G10">
-        <v>42.04110021278406</v>
+        <v>39.0128015676485</v>
       </c>
       <c r="H10">
-        <v>3.350425840999371</v>
+        <v>3.180591589496008</v>
       </c>
       <c r="I10">
-        <v>4.034965560871837</v>
+        <v>3.813358337516921</v>
       </c>
       <c r="J10">
-        <v>13.45883432095591</v>
+        <v>12.39201952290173</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.043120848687876</v>
+        <v>15.32836363386851</v>
       </c>
       <c r="M10">
-        <v>13.31492286772106</v>
+        <v>15.13502602350114</v>
       </c>
       <c r="N10">
-        <v>6.380970530423722</v>
+        <v>5.938810982772435</v>
       </c>
       <c r="O10">
-        <v>11.76870029758835</v>
+        <v>13.16217929494007</v>
       </c>
       <c r="P10">
-        <v>15.02087279859951</v>
+        <v>6.774303604691026</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.55395322320383</v>
+      </c>
+      <c r="R10">
+        <v>14.43379378437425</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.53523068393503</v>
+        <v>16.51432543004904</v>
       </c>
       <c r="C11">
-        <v>7.93896955863393</v>
+        <v>8.215275213193777</v>
       </c>
       <c r="D11">
-        <v>3.999290841573027</v>
+        <v>4.382261415620135</v>
       </c>
       <c r="E11">
-        <v>6.696918948274745</v>
+        <v>6.666953182342322</v>
       </c>
       <c r="F11">
-        <v>30.80514499815753</v>
+        <v>28.45415227529104</v>
       </c>
       <c r="G11">
-        <v>40.33670532202522</v>
+        <v>38.14002741852406</v>
       </c>
       <c r="H11">
-        <v>3.957976294225235</v>
+        <v>3.826908093366161</v>
       </c>
       <c r="I11">
-        <v>3.973950643274798</v>
+        <v>3.770511141715215</v>
       </c>
       <c r="J11">
-        <v>13.07674649373029</v>
+        <v>11.61504635175405</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.967895432882671</v>
+        <v>14.61460433616073</v>
       </c>
       <c r="M11">
-        <v>13.5798342286319</v>
+        <v>14.59758857216691</v>
       </c>
       <c r="N11">
-        <v>5.975352188444797</v>
+        <v>5.889117128887023</v>
       </c>
       <c r="O11">
-        <v>11.46454562287269</v>
+        <v>13.37001431814709</v>
       </c>
       <c r="P11">
-        <v>14.69260649308373</v>
+        <v>6.345629087692428</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.23685215853521</v>
+      </c>
+      <c r="R11">
+        <v>14.15470771541099</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.37057448151591</v>
+        <v>16.37336307442727</v>
       </c>
       <c r="C12">
-        <v>8.160273299513534</v>
+        <v>8.394730599509206</v>
       </c>
       <c r="D12">
-        <v>3.873578824298497</v>
+        <v>4.263479044955738</v>
       </c>
       <c r="E12">
-        <v>6.450767152881137</v>
+        <v>6.433720598528778</v>
       </c>
       <c r="F12">
-        <v>29.71663217792634</v>
+        <v>27.38692735270567</v>
       </c>
       <c r="G12">
-        <v>38.72997668932787</v>
+        <v>37.02316261499096</v>
       </c>
       <c r="H12">
-        <v>5.032114333708484</v>
+        <v>4.930399669535213</v>
       </c>
       <c r="I12">
-        <v>3.965679771472206</v>
+        <v>3.764890371025897</v>
       </c>
       <c r="J12">
-        <v>12.74722923106767</v>
+        <v>11.16876133294494</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.94482959419011</v>
+        <v>14.12272007362328</v>
       </c>
       <c r="M12">
-        <v>13.5924645393472</v>
+        <v>14.14826056681786</v>
       </c>
       <c r="N12">
-        <v>5.616251701363847</v>
+        <v>5.889303471966814</v>
       </c>
       <c r="O12">
-        <v>11.09862567059125</v>
+        <v>13.36317600845094</v>
       </c>
       <c r="P12">
-        <v>14.49492700996719</v>
+        <v>5.963885656832882</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.87061616392893</v>
+      </c>
+      <c r="R12">
+        <v>14.01373967908879</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.98134962981935</v>
+        <v>16.05054170065899</v>
       </c>
       <c r="C13">
-        <v>8.285768174128307</v>
+        <v>8.48881053171038</v>
       </c>
       <c r="D13">
-        <v>3.719116083509983</v>
+        <v>4.082649451777011</v>
       </c>
       <c r="E13">
-        <v>6.281369286902532</v>
+        <v>6.274710448432247</v>
       </c>
       <c r="F13">
-        <v>28.5558069707742</v>
+        <v>26.39863129744435</v>
       </c>
       <c r="G13">
-        <v>37.00005917468457</v>
+        <v>35.41527053889389</v>
       </c>
       <c r="H13">
-        <v>6.279889708878295</v>
+        <v>6.193397121227297</v>
       </c>
       <c r="I13">
-        <v>4.010058163616722</v>
+        <v>3.801281841241423</v>
       </c>
       <c r="J13">
-        <v>12.42133766780086</v>
+        <v>10.97900261312395</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.956656251796009</v>
+        <v>13.74574673700081</v>
       </c>
       <c r="M13">
-        <v>13.40750819065175</v>
+        <v>13.73425511484161</v>
       </c>
       <c r="N13">
-        <v>5.279930163204673</v>
+        <v>5.923376475576983</v>
       </c>
       <c r="O13">
-        <v>10.65234675969305</v>
+        <v>13.19842139857078</v>
       </c>
       <c r="P13">
-        <v>14.3760238390224</v>
+        <v>5.604145919934817</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.43748311045403</v>
+      </c>
+      <c r="R13">
+        <v>13.95811976080553</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.59717407875955</v>
+        <v>15.7326653718793</v>
       </c>
       <c r="C14">
-        <v>8.336729269421806</v>
+        <v>8.522457010555815</v>
       </c>
       <c r="D14">
-        <v>3.598159604060208</v>
+        <v>3.929273935198326</v>
       </c>
       <c r="E14">
-        <v>6.213620188397218</v>
+        <v>6.215664433671829</v>
       </c>
       <c r="F14">
-        <v>27.70226445933479</v>
+        <v>25.7298182835365</v>
       </c>
       <c r="G14">
-        <v>35.71635477576884</v>
+        <v>34.06675499879005</v>
       </c>
       <c r="H14">
-        <v>7.208738284015334</v>
+        <v>7.12793569028219</v>
       </c>
       <c r="I14">
-        <v>4.067254008627808</v>
+        <v>3.84861797350953</v>
       </c>
       <c r="J14">
-        <v>12.19344084175986</v>
+        <v>10.94217975949869</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.98651006382946</v>
+        <v>13.52379001744738</v>
       </c>
       <c r="M14">
-        <v>13.18516767280677</v>
+        <v>13.4588354641872</v>
       </c>
       <c r="N14">
-        <v>5.063633308203531</v>
+        <v>5.967395655042107</v>
       </c>
       <c r="O14">
-        <v>10.29984130876231</v>
+        <v>13.00800847063916</v>
       </c>
       <c r="P14">
-        <v>14.3303015416807</v>
+        <v>5.371156627916295</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.09986442160964</v>
+      </c>
+      <c r="R14">
+        <v>13.95523824459703</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.44842850112016</v>
+        <v>15.60867254496495</v>
       </c>
       <c r="C15">
-        <v>8.333829429713404</v>
+        <v>8.518013450464316</v>
       </c>
       <c r="D15">
-        <v>3.564086712246737</v>
+        <v>3.881486348326892</v>
       </c>
       <c r="E15">
-        <v>6.201121020319623</v>
+        <v>6.206479494621851</v>
       </c>
       <c r="F15">
-        <v>27.4700713776962</v>
+        <v>25.57006532996074</v>
       </c>
       <c r="G15">
-        <v>35.36105129473101</v>
+        <v>33.63545740548293</v>
       </c>
       <c r="H15">
-        <v>7.431759197240287</v>
+        <v>7.350844759905035</v>
       </c>
       <c r="I15">
-        <v>4.096535293613749</v>
+        <v>3.873868605558065</v>
       </c>
       <c r="J15">
-        <v>12.13583635415546</v>
+        <v>10.97174592755904</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.994116862358128</v>
+        <v>13.48266331900886</v>
       </c>
       <c r="M15">
-        <v>13.08655098201236</v>
+        <v>13.39374241298013</v>
       </c>
       <c r="N15">
-        <v>5.013949924228121</v>
+        <v>5.978280443160306</v>
       </c>
       <c r="O15">
-        <v>10.19611669636551</v>
+        <v>12.92494078493105</v>
       </c>
       <c r="P15">
-        <v>14.33199148092681</v>
+        <v>5.31762600752554</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.00220212730575</v>
+      </c>
+      <c r="R15">
+        <v>13.96740507260193</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.98941055876048</v>
+        <v>15.21957427098393</v>
       </c>
       <c r="C16">
-        <v>8.123936602155721</v>
+        <v>8.322947895902841</v>
       </c>
       <c r="D16">
-        <v>3.513046263692389</v>
+        <v>3.782346065758722</v>
       </c>
       <c r="E16">
-        <v>6.165460939676949</v>
+        <v>6.179975242995781</v>
       </c>
       <c r="F16">
-        <v>27.36215355571095</v>
+        <v>25.68751041231489</v>
       </c>
       <c r="G16">
-        <v>35.16886308610137</v>
+        <v>32.95787134671328</v>
       </c>
       <c r="H16">
-        <v>7.28682087902807</v>
+        <v>7.192010216729761</v>
       </c>
       <c r="I16">
-        <v>4.216896557857552</v>
+        <v>3.973955927582377</v>
       </c>
       <c r="J16">
-        <v>12.15217024260475</v>
+        <v>11.33546498786217</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.959007621994905</v>
+        <v>13.64803631679001</v>
       </c>
       <c r="M16">
-        <v>12.6753519489381</v>
+        <v>13.45374106324901</v>
       </c>
       <c r="N16">
-        <v>5.011119927452378</v>
+        <v>5.942862013453248</v>
       </c>
       <c r="O16">
-        <v>10.05149491763224</v>
+        <v>12.57868316165745</v>
       </c>
       <c r="P16">
-        <v>14.45026975634531</v>
+        <v>5.317943271622324</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.877660161135179</v>
+      </c>
+      <c r="R16">
+        <v>14.08596547871292</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.84466002990633</v>
+        <v>15.08565283383403</v>
       </c>
       <c r="C17">
-        <v>7.931752891777704</v>
+        <v>8.142329713130328</v>
       </c>
       <c r="D17">
-        <v>3.539824193193885</v>
+        <v>3.794789433722993</v>
       </c>
       <c r="E17">
-        <v>6.164650101046799</v>
+        <v>6.17803717950606</v>
       </c>
       <c r="F17">
-        <v>27.7370389753099</v>
+        <v>26.11644157340525</v>
       </c>
       <c r="G17">
-        <v>35.71239744261381</v>
+        <v>33.23945908873291</v>
       </c>
       <c r="H17">
-        <v>6.661348460759271</v>
+        <v>6.550626364444895</v>
       </c>
       <c r="I17">
-        <v>4.279588696701753</v>
+        <v>4.027109568113937</v>
       </c>
       <c r="J17">
-        <v>12.28567731966002</v>
+        <v>11.6042260772343</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.912084226573237</v>
+        <v>13.89345462697536</v>
       </c>
       <c r="M17">
-        <v>12.47722478188799</v>
+        <v>13.63344488707978</v>
       </c>
       <c r="N17">
-        <v>5.120507903185569</v>
+        <v>5.888679590237293</v>
       </c>
       <c r="O17">
-        <v>10.13200957170445</v>
+        <v>12.40573864235144</v>
       </c>
       <c r="P17">
-        <v>14.56393852016934</v>
+        <v>5.438133326064247</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.963585385100625</v>
+      </c>
+      <c r="R17">
+        <v>14.18131719088556</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.97266098802175</v>
+        <v>15.18352744805967</v>
       </c>
       <c r="C18">
-        <v>7.72502368355983</v>
+        <v>7.954255769654122</v>
       </c>
       <c r="D18">
-        <v>3.633560215375373</v>
+        <v>3.892555640809799</v>
       </c>
       <c r="E18">
-        <v>6.247802477927513</v>
+        <v>6.249720274560892</v>
       </c>
       <c r="F18">
-        <v>28.59525347983664</v>
+        <v>26.92209678352385</v>
       </c>
       <c r="G18">
-        <v>36.99319807699132</v>
+        <v>34.28344896442567</v>
       </c>
       <c r="H18">
-        <v>5.612907293631451</v>
+        <v>5.479421825379734</v>
       </c>
       <c r="I18">
-        <v>4.289195811574729</v>
+        <v>4.033222711990316</v>
       </c>
       <c r="J18">
-        <v>12.54385732360503</v>
+        <v>11.89552198421826</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.875249148557888</v>
+        <v>14.27297959759894</v>
       </c>
       <c r="M18">
-        <v>12.44930854892603</v>
+        <v>13.96199465729591</v>
       </c>
       <c r="N18">
-        <v>5.357671738028261</v>
+        <v>5.836747756182115</v>
       </c>
       <c r="O18">
-        <v>10.41783670653742</v>
+        <v>12.38134269112984</v>
       </c>
       <c r="P18">
-        <v>14.70120391793572</v>
+        <v>5.693255450257465</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.24623371275731</v>
+      </c>
+      <c r="R18">
+        <v>14.28133070702829</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.2761572496945</v>
+        <v>15.43203171496911</v>
       </c>
       <c r="C19">
-        <v>7.557517573096463</v>
+        <v>7.81507637041539</v>
       </c>
       <c r="D19">
-        <v>3.780944963491859</v>
+        <v>4.054740136916896</v>
       </c>
       <c r="E19">
-        <v>6.464962254486142</v>
+        <v>6.447842451196305</v>
       </c>
       <c r="F19">
-        <v>29.72914294006576</v>
+        <v>27.93838220777793</v>
       </c>
       <c r="G19">
-        <v>38.68091359731577</v>
+        <v>35.72737892644201</v>
       </c>
       <c r="H19">
-        <v>4.471107067960419</v>
+        <v>4.307901662723022</v>
       </c>
       <c r="I19">
-        <v>4.268391502532165</v>
+        <v>4.016976230940966</v>
       </c>
       <c r="J19">
-        <v>12.86878813600143</v>
+        <v>12.19783229483114</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.886521750392125</v>
+        <v>14.7177781859938</v>
       </c>
       <c r="M19">
-        <v>12.55502844532535</v>
+        <v>14.3704943823088</v>
       </c>
       <c r="N19">
-        <v>5.712126040191904</v>
+        <v>5.826310706235314</v>
       </c>
       <c r="O19">
-        <v>10.83967075619598</v>
+        <v>12.47769110047653</v>
       </c>
       <c r="P19">
-        <v>14.85652106904508</v>
+        <v>6.069494574360108</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.65971719709558</v>
+      </c>
+      <c r="R19">
+        <v>14.38640496499762</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.09762505347475</v>
+        <v>16.13345724683322</v>
       </c>
       <c r="C20">
-        <v>7.46121109138866</v>
+        <v>7.771194964252379</v>
       </c>
       <c r="D20">
-        <v>4.055428223311186</v>
+        <v>4.373352187916269</v>
       </c>
       <c r="E20">
-        <v>7.011124506128684</v>
+        <v>6.961056819944095</v>
       </c>
       <c r="F20">
-        <v>31.67186048166008</v>
+        <v>29.58252971202692</v>
       </c>
       <c r="G20">
-        <v>41.58077565112467</v>
+        <v>38.36438947802891</v>
       </c>
       <c r="H20">
-        <v>3.441581675513923</v>
+        <v>3.260094218781171</v>
       </c>
       <c r="I20">
-        <v>4.135703649720472</v>
+        <v>3.905389846945</v>
       </c>
       <c r="J20">
-        <v>13.39854392131083</v>
+        <v>12.53927968251772</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.021054958510415</v>
+        <v>15.34869277087337</v>
       </c>
       <c r="M20">
-        <v>13.03426760314074</v>
+        <v>15.05091069081273</v>
       </c>
       <c r="N20">
-        <v>6.348370485399581</v>
+        <v>5.921111842367329</v>
       </c>
       <c r="O20">
-        <v>11.62400840857499</v>
+        <v>12.91456100724589</v>
       </c>
       <c r="P20">
-        <v>15.06208538119681</v>
+        <v>6.739136993659084</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.42125848124659</v>
+      </c>
+      <c r="R20">
+        <v>14.49626811264076</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.07492161652582</v>
+        <v>16.94639868701252</v>
       </c>
       <c r="C21">
-        <v>7.786447388387141</v>
+        <v>8.079908334278334</v>
       </c>
       <c r="D21">
-        <v>4.225818065329405</v>
+        <v>4.660084187026897</v>
       </c>
       <c r="E21">
-        <v>7.209100136773452</v>
+        <v>7.16373436986511</v>
       </c>
       <c r="F21">
-        <v>32.49289079385363</v>
+        <v>29.8402944051201</v>
       </c>
       <c r="G21">
-        <v>42.83261167983854</v>
+        <v>40.63752476481275</v>
       </c>
       <c r="H21">
-        <v>3.150107906966088</v>
+        <v>3.006251375292007</v>
       </c>
       <c r="I21">
-        <v>3.90330688050669</v>
+        <v>3.715624415160859</v>
       </c>
       <c r="J21">
-        <v>13.55780790040254</v>
+        <v>11.7916442130369</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.096193015382604</v>
+        <v>15.17459084319347</v>
       </c>
       <c r="M21">
-        <v>13.8435041439571</v>
+        <v>15.18607505134666</v>
       </c>
       <c r="N21">
-        <v>6.55645625619679</v>
+        <v>5.978150612338808</v>
       </c>
       <c r="O21">
-        <v>12.10431905916369</v>
+        <v>13.58865505833806</v>
       </c>
       <c r="P21">
-        <v>14.92871299837605</v>
+        <v>6.956981270661933</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.85227484564397</v>
+      </c>
+      <c r="R21">
+        <v>14.28263036160968</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.68226000108408</v>
+        <v>17.44712835497116</v>
       </c>
       <c r="C22">
-        <v>7.988072840703852</v>
+        <v>8.261430690926314</v>
       </c>
       <c r="D22">
-        <v>4.319445435546135</v>
+        <v>4.833496735631798</v>
       </c>
       <c r="E22">
-        <v>7.310246924061552</v>
+        <v>7.272273571468727</v>
       </c>
       <c r="F22">
-        <v>32.98164564154072</v>
+        <v>29.94661957679132</v>
       </c>
       <c r="G22">
-        <v>43.58602489427325</v>
+        <v>42.17559220724342</v>
       </c>
       <c r="H22">
-        <v>2.974006898680398</v>
+        <v>2.854202765588248</v>
       </c>
       <c r="I22">
-        <v>3.74797206072819</v>
+        <v>3.585497059059498</v>
       </c>
       <c r="J22">
-        <v>13.65246115297653</v>
+        <v>11.2823787241911</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.137761762120541</v>
+        <v>15.03987462606167</v>
       </c>
       <c r="M22">
-        <v>14.34264242472695</v>
+        <v>15.25958778775751</v>
       </c>
       <c r="N22">
-        <v>6.656786167865645</v>
+        <v>6.009598172422158</v>
       </c>
       <c r="O22">
-        <v>12.3834775702861</v>
+        <v>13.99799744767076</v>
       </c>
       <c r="P22">
-        <v>14.83632928026628</v>
+        <v>7.062397297765374</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.09782478395353</v>
+      </c>
+      <c r="R22">
+        <v>14.13753016974689</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.37798918242589</v>
+        <v>17.20944333716642</v>
       </c>
       <c r="C23">
-        <v>7.86625600423595</v>
+        <v>8.160870450603868</v>
       </c>
       <c r="D23">
-        <v>4.265022629880354</v>
+        <v>4.725512342598067</v>
       </c>
       <c r="E23">
-        <v>7.25854715606678</v>
+        <v>7.213260521888055</v>
       </c>
       <c r="F23">
-        <v>32.75585597074631</v>
+        <v>29.96658568585766</v>
       </c>
       <c r="G23">
-        <v>43.24420902293304</v>
+        <v>41.25671447105633</v>
       </c>
       <c r="H23">
-        <v>3.066308939750729</v>
+        <v>2.932637596420802</v>
       </c>
       <c r="I23">
-        <v>3.820650631455615</v>
+        <v>3.641879810590854</v>
       </c>
       <c r="J23">
-        <v>13.61366906946532</v>
+        <v>11.65073983854654</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.1172889424487</v>
+        <v>15.14993748977932</v>
       </c>
       <c r="M23">
-        <v>14.08184641605252</v>
+        <v>15.25987427801163</v>
       </c>
       <c r="N23">
-        <v>6.598963644758165</v>
+        <v>5.994862446023961</v>
       </c>
       <c r="O23">
-        <v>12.23840579955074</v>
+        <v>13.79680810610028</v>
       </c>
       <c r="P23">
-        <v>14.89270981993957</v>
+        <v>7.002299206745313</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.97469046656223</v>
+      </c>
+      <c r="R23">
+        <v>14.22558204454252</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.14937598223938</v>
+        <v>16.17962551327135</v>
       </c>
       <c r="C24">
-        <v>7.417935496318928</v>
+        <v>7.725076452501117</v>
       </c>
       <c r="D24">
-        <v>4.062137805408521</v>
+        <v>4.381128568901627</v>
       </c>
       <c r="E24">
-        <v>7.055719724781216</v>
+        <v>7.003336487831172</v>
       </c>
       <c r="F24">
-        <v>31.84541499103678</v>
+        <v>29.74374365718081</v>
       </c>
       <c r="G24">
-        <v>41.85072606350626</v>
+        <v>38.59726855377642</v>
       </c>
       <c r="H24">
-        <v>3.425309169439248</v>
+        <v>3.243978255798901</v>
       </c>
       <c r="I24">
-        <v>4.119001825094952</v>
+        <v>3.886140531227035</v>
       </c>
       <c r="J24">
-        <v>13.45244092068779</v>
+        <v>12.59483873086418</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.035312730208545</v>
+        <v>15.432359476355</v>
       </c>
       <c r="M24">
-        <v>13.04394774878075</v>
+        <v>15.1263495684009</v>
       </c>
       <c r="N24">
-        <v>6.384250321315389</v>
+        <v>5.932282686018214</v>
       </c>
       <c r="O24">
-        <v>11.66999333256939</v>
+        <v>12.92384445291042</v>
       </c>
       <c r="P24">
-        <v>15.09628437439866</v>
+        <v>6.77731192035542</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.46642524729044</v>
+      </c>
+      <c r="R24">
+        <v>14.52183403457595</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.72314671844151</v>
+        <v>14.85261944234353</v>
       </c>
       <c r="C25">
-        <v>6.911702995971031</v>
+        <v>7.072256416601934</v>
       </c>
       <c r="D25">
-        <v>3.834979042914993</v>
+        <v>4.121828526897787</v>
       </c>
       <c r="E25">
-        <v>6.829294041851375</v>
+        <v>6.802545192669104</v>
       </c>
       <c r="F25">
-        <v>30.86963770976587</v>
+        <v>29.02746847995246</v>
       </c>
       <c r="G25">
-        <v>40.34893205987512</v>
+        <v>37.41977263072927</v>
       </c>
       <c r="H25">
-        <v>3.828797209466611</v>
+        <v>3.609982750852202</v>
       </c>
       <c r="I25">
-        <v>4.456342171067066</v>
+        <v>4.178479044790234</v>
       </c>
       <c r="J25">
-        <v>13.28943806314502</v>
+        <v>12.53227274173481</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.942876469742773</v>
+        <v>15.5161801876228</v>
       </c>
       <c r="M25">
-        <v>11.94306911859178</v>
+        <v>14.80960082954582</v>
       </c>
       <c r="N25">
-        <v>6.147205999781268</v>
+        <v>5.853250485890538</v>
       </c>
       <c r="O25">
-        <v>11.0299528769222</v>
+        <v>11.75642362100603</v>
       </c>
       <c r="P25">
-        <v>15.31984071166886</v>
+        <v>6.526035256933607</v>
       </c>
       <c r="Q25">
+        <v>10.84507170675233</v>
+      </c>
+      <c r="R25">
+        <v>14.77876254537808</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
